--- a/cpp/algorithms/背包问题/01背包/01背包.xlsx
+++ b/cpp/algorithms/背包问题/01背包/01背包.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingrui/CODE/cpp/algorithms/背包问题/01背包/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D71020-3471-CF43-BE9A-6ABBCC5DA37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139B0183-344F-E645-88C5-3B982CF498D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15660" yWindow="460" windowWidth="20180" windowHeight="21940" xr2:uid="{5A68DF1A-E377-0842-BFC2-A5AAE97180CB}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,13 +677,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J13" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -710,13 +710,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -743,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="H15" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2">
         <v>15</v>
       </c>
       <c r="J15" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -766,23 +766,23 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
         <v>8</v>
       </c>
       <c r="G16" s="2">
         <v>8</v>
       </c>
       <c r="H16" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
         <v>15</v>
       </c>
       <c r="J16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -799,25 +799,25 @@
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
         <v>9</v>
       </c>
       <c r="G17" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -837,22 +837,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2">
         <v>14</v>
       </c>
-      <c r="I18" s="2">
-        <v>16</v>
-      </c>
       <c r="J18" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
